--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1158577.171284911</v>
+        <v>1243944.477318172</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.62903715749025</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>86.86984904604014</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>149.8151737167706</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>148.1658156685793</v>
+        <v>82.50423287391843</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>47.18357156358636</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>31.66575532350225</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539885</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398515</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.9684151988899</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813378</v>
+        <v>33.74703566813371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>20.78638083063239</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>35.51375835229967</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>214.9029560247063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.5406427189009</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>111.9546287659191</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.61663734311324</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>99.59895631930689</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>321.9766310328807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>57.92518451681179</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>84.78512906876112</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>134.0389899623034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>186.8250998946411</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613028</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>92.47445699814442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>59.35991151980221</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>200.8052136229452</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744764</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>184.0510976947206</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>313.0734949773367</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.2419515106229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946393</v>
       </c>
       <c r="E32" t="n">
-        <v>332.5974168996791</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249712</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>205.9739294011777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>173.5578851713665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>17.25910213118261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>184.5496477570983</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>184.5747610569531</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74033372995838</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>238.3262268437785</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>46.27144787880041</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.2058412515448</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>105.0023863360924</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>225.750889292395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899697</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.3237564101303</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>670.3237564101303</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>670.3237564101303</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>670.3237564101303</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>670.3237564101303</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>670.3237564101303</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>670.3237564101303</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>670.3237564101303</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.3237564101303</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>818.4718993411373</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>818.4718993411373</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>818.4718993411373</v>
+        <v>903.5270617062563</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4718993411373</v>
+        <v>649.2897049780547</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>441.4382047725218</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>233.6779060075679</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4519,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>638.8154233695749</v>
+        <v>705.1402544752926</v>
       </c>
       <c r="W4" t="n">
-        <v>638.8154233695749</v>
+        <v>438.7625979081147</v>
       </c>
       <c r="X4" t="n">
-        <v>410.8258724715575</v>
+        <v>438.7625979081147</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>217.9700187645846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571.7995439980366</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="C5" t="n">
-        <v>571.7995439980366</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="D5" t="n">
-        <v>571.7995439980366</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="E5" t="n">
-        <v>571.7995439980366</v>
+        <v>1172.951282321832</v>
       </c>
       <c r="F5" t="n">
-        <v>160.813639208429</v>
+        <v>761.9653775322245</v>
       </c>
       <c r="G5" t="n">
-        <v>128.828027770548</v>
+        <v>345.5190685452733</v>
       </c>
       <c r="H5" t="n">
-        <v>128.828027770548</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135721</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818682</v>
+        <v>270.9975490818687</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373967</v>
+        <v>509.5409587373977</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176454</v>
+        <v>806.6359018176472</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058966</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836692</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921683</v>
+        <v>1590.394365921687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.67434296195</v>
+        <v>1551.674342961954</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.67434296195</v>
+        <v>1551.674342961954</v>
       </c>
       <c r="U5" t="n">
-        <v>1298.033957529231</v>
+        <v>1551.674342961954</v>
       </c>
       <c r="V5" t="n">
-        <v>1298.033957529231</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="W5" t="n">
-        <v>945.2653022591164</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="X5" t="n">
-        <v>571.7995439980366</v>
+        <v>1220.611455618384</v>
       </c>
       <c r="Y5" t="n">
-        <v>571.7995439980366</v>
+        <v>1220.611455618384</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>834.2109825757385</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="C6" t="n">
-        <v>659.7579532946115</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="D6" t="n">
-        <v>510.8235436333602</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="E6" t="n">
-        <v>351.5860886279047</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="F6" t="n">
-        <v>205.0515306547897</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135721</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324407</v>
+        <v>70.03636142348495</v>
       </c>
       <c r="K6" t="n">
-        <v>443.2235805075017</v>
+        <v>453.7840752777429</v>
       </c>
       <c r="L6" t="n">
-        <v>653.4921936302361</v>
+        <v>664.0526884004777</v>
       </c>
       <c r="M6" t="n">
-        <v>918.2226155869766</v>
+        <v>928.7831103572187</v>
       </c>
       <c r="N6" t="n">
-        <v>1204.368308998704</v>
+        <v>1214.928803768946</v>
       </c>
       <c r="O6" t="n">
-        <v>1443.915920172901</v>
+        <v>1454.476414943144</v>
       </c>
       <c r="P6" t="n">
-        <v>1616.840930787369</v>
+        <v>1627.401425557612</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232574</v>
+        <v>1693.078019232578</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567861</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567861</v>
+        <v>1550.18015784311</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567861</v>
+        <v>1354.574272178449</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567861</v>
+        <v>1126.458064833933</v>
       </c>
       <c r="V6" t="n">
-        <v>1672.275475294495</v>
+        <v>891.3059566021907</v>
       </c>
       <c r="W6" t="n">
-        <v>1418.038118566293</v>
+        <v>637.0685998739891</v>
       </c>
       <c r="X6" t="n">
-        <v>1210.18661836076</v>
+        <v>429.2170996684563</v>
       </c>
       <c r="Y6" t="n">
-        <v>1002.426319595806</v>
+        <v>221.4568009035024</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>669.1504547145062</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="C7" t="n">
-        <v>500.2142717865993</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0976323742636</v>
+        <v>536.6433192394926</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1845387918705</v>
+        <v>536.6433192394926</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918705</v>
+        <v>389.7533717415822</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135721</v>
+        <v>221.434269341069</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135721</v>
+        <v>69.73791957549838</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135721</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652171</v>
+        <v>36.2851213365219</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128593</v>
+        <v>170.0982437128597</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119579</v>
+        <v>396.8594047119585</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191526</v>
+        <v>646.3363778191535</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361639</v>
+        <v>895.315962536165</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021379</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580464</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397012</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397012</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397012</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397012</v>
+        <v>975.8964400230157</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397012</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397012</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="W7" t="n">
-        <v>1078.788470442763</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="X7" t="n">
-        <v>850.7989195447459</v>
+        <v>686.7599586518284</v>
       </c>
       <c r="Y7" t="n">
-        <v>850.7989195447459</v>
+        <v>686.7599586518284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.405431550704</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.405431550704</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.405431550704</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>846.6171789524601</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>435.6312741628525</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2449.253844798217</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2240.508203404042</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526516</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.405431550704</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.298126874724</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4987,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1613.601031849131</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T10" t="n">
-        <v>1613.601031849131</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U10" t="n">
-        <v>1613.601031849131</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V10" t="n">
-        <v>1358.916543643244</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W10" t="n">
-        <v>1069.499373606283</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>841.5098227082655</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5111,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.7237329438971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>1864.571497852645</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.154327815684</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.164776917667</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.372197774137</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392149</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324644</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218343</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5479,7 +5481,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450754</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2424.744041450754</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1600.215744761477</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.798574724517</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.770455879627</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392153</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>364.0957168234162</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>364.0957168234162</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943749</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5850,25 +5852,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494537</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.13738556663</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154295</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.107652571901</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.217705073991</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G22" t="n">
         <v>1464.823389952862</v>
@@ -5908,52 +5910,52 @@
         <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403285</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366325</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468307</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324777</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528559</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389511</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G23" t="n">
         <v>406.0926155839475</v>
@@ -5984,10 +5986,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X23" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6072,46 +6074,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441808</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139007</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015649</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191718</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212614</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959804</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279953</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>2533.219997888693</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313595</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>1929.158833060187</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>1708.366253916657</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6245,31 +6247,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3122.772272495085</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.00361722497</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2396.53785896389</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2405.758056700423</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C28" t="n">
-        <v>2236.821873772516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D28" t="n">
-        <v>2086.70523436018</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E28" t="n">
-        <v>1938.792140777787</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F28" t="n">
-        <v>1791.902193279877</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G28" t="n">
-        <v>1624.199356654596</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H28" t="n">
-        <v>1477.982169872454</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q28" t="n">
         <v>3325.605821609171</v>
@@ -6409,25 +6411,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.225125372327</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>2928.458509941853</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.605821609171</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W28" t="n">
-        <v>3036.18865157221</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X28" t="n">
-        <v>2808.199100674193</v>
+        <v>1867.264433926632</v>
       </c>
       <c r="Y28" t="n">
-        <v>2587.406521530663</v>
+        <v>1646.471854783102</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1506.396382525582</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.43386558517</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
         <v>779.1681669784198</v>
@@ -6455,19 +6457,19 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6476,7 +6478,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.369968096709</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.601312826595</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X29" t="n">
-        <v>2283.135554565515</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y29" t="n">
-        <v>1892.996222589704</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962485</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034578</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622242</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.959038039849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>2822.322864763051</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V31" t="n">
-        <v>2822.322864763051</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.322864763051</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X31" t="n">
-        <v>2822.322864763051</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y31" t="n">
-        <v>2671.573418792725</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2295.336172843073</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C32" t="n">
-        <v>1926.373655902662</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D32" t="n">
-        <v>1568.107957295911</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6713,7 +6715,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>3072.075344883007</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>3072.075344883007</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2681.936012907195</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6783,46 +6785,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
         <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
         <v>1713.933205348673</v>
@@ -6868,40 +6870,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435997</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131166</v>
+        <v>2614.268390620447</v>
       </c>
       <c r="V34" t="n">
-        <v>2368.36596692528</v>
+        <v>2614.268390620447</v>
       </c>
       <c r="W34" t="n">
-        <v>2078.948796888319</v>
+        <v>2324.851220583486</v>
       </c>
       <c r="X34" t="n">
-        <v>1850.959245990302</v>
+        <v>2096.861669685469</v>
       </c>
       <c r="Y34" t="n">
-        <v>1630.166666846772</v>
+        <v>1876.069090541939</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218342</v>
@@ -6935,22 +6937,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -6990,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>645.3078929297411</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C37" t="n">
-        <v>645.3078929297411</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D37" t="n">
-        <v>495.1912535174054</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>495.1912535174054</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X37" t="n">
-        <v>866.1004720732712</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3078929297411</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.208022973022</v>
+        <v>1865.035106955551</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
@@ -7178,7 +7180,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7193,31 +7195,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3028.876000553484</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.813113209913</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.813113209913</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>2324.347354948834</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y38" t="n">
-        <v>1934.208022973022</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,7 +7274,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7359,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.504157785456</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1593.737542354982</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1304.634675480626</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1049.950187274739</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W40" t="n">
-        <v>760.5330172377786</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X40" t="n">
-        <v>532.5434663397613</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y40" t="n">
-        <v>311.7508871962312</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.300932605789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C41" t="n">
-        <v>1175.300932605789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.300932605789</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3278.866985367958</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>3025.336508641794</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176916</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906802</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645722</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.900772669911</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1640.204086189705</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="C43" t="n">
-        <v>1611.713337450771</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="D43" t="n">
-        <v>1611.713337450771</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="E43" t="n">
-        <v>1611.713337450771</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.823389952861</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952861</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>3103.839206178696</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>2814.73633930434</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>2560.051851098453</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>2270.634681061492</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X43" t="n">
-        <v>2042.645130163475</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y43" t="n">
-        <v>1821.852551019945</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1594.601034732593</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.638517792182</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>867.3728191854311</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,7 +7660,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7667,31 +7669,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3219.542805108066</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3097.574620303721</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2744.805965033606</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2371.340206772526</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1981.200874796715</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088492</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.044275313594</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157979</v>
+        <v>25.82445471157956</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.66716643458649</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.6671664345852</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.0073097921337</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>265.6739354517007</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>190.0418235903385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>88.94509462057272</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,55 +23673,55 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>21.5947289549143</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>145.9927856228084</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.46169202986671</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>118.0986533615246</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>167.8579417260418</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>168.0688818921506</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>277.2566436803246</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.3497438692349</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>126.9470448471897</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696548</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>198.68274396876</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -24737,7 +24739,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>14.67876349279823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>167.8579417260436</v>
       </c>
       <c r="E32" t="n">
-        <v>49.33295317258268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>80.23790880443514</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>181.1251564493164</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>128.1619458917486</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433958</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>180.7232440139092</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>66.42041090194886</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.0286916014835</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>143.6041432284833</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>157.6465222608198</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>139.040979847083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>21.59472895491476</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>4.185375452083477</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>102.0013691777399</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.2833318990675</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033395</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795272.3190033396</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795272.3190033393</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651048</v>
@@ -26332,28 +26334,28 @@
         <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
+        <v>409196.518765105</v>
+      </c>
+      <c r="J2" t="n">
         <v>409196.5187651048</v>
       </c>
-      <c r="J2" t="n">
-        <v>409196.5187651049</v>
-      </c>
       <c r="K2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="L2" t="n">
         <v>409196.518765105</v>
       </c>
       <c r="M2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739483</v>
+        <v>176672.6241739495</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819091</v>
+        <v>223886.309381908</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911419</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640765</v>
+        <v>41076.98154640781</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946857</v>
+        <v>54988.29121946831</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055026</v>
+        <v>204705.4033055023</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26436,28 +26438,28 @@
         <v>11600.2349971284</v>
       </c>
       <c r="I4" t="n">
-        <v>11600.23499712849</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="J4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="K4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="L4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="M4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="N4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="O4" t="n">
         <v>11600.23499712842</v>
       </c>
       <c r="P4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.23499712842</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923103</v>
+        <v>75746.8716792311</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26488,28 +26490,28 @@
         <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502632.7871400665</v>
+        <v>-502632.7871400664</v>
       </c>
       <c r="C6" t="n">
-        <v>35500.16275988813</v>
+        <v>35500.16275988707</v>
       </c>
       <c r="D6" t="n">
-        <v>34258.15954423638</v>
+        <v>34258.15954423739</v>
       </c>
       <c r="E6" t="n">
-        <v>141216.9633893925</v>
+        <v>141216.9633893924</v>
       </c>
       <c r="F6" t="n">
         <v>323289.9432065831</v>
       </c>
       <c r="G6" t="n">
-        <v>323289.9432065831</v>
+        <v>323289.943206583</v>
       </c>
       <c r="H6" t="n">
         <v>323289.943206583</v>
       </c>
       <c r="I6" t="n">
-        <v>323289.9432065834</v>
+        <v>323289.9432065836</v>
       </c>
       <c r="J6" t="n">
-        <v>254290.7887874692</v>
+        <v>254290.7887874689</v>
       </c>
       <c r="K6" t="n">
-        <v>282212.9616601756</v>
+        <v>282212.9616601754</v>
       </c>
       <c r="L6" t="n">
-        <v>268301.6519871147</v>
+        <v>268301.651987115</v>
       </c>
       <c r="M6" t="n">
-        <v>275737.6774131681</v>
+        <v>275737.6774131682</v>
       </c>
       <c r="N6" t="n">
         <v>323289.9432065831</v>
       </c>
       <c r="O6" t="n">
+        <v>323289.9432065831</v>
+      </c>
+      <c r="P6" t="n">
         <v>323289.943206583</v>
-      </c>
-      <c r="P6" t="n">
-        <v>323289.9432065833</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908047</v>
+        <v>751.4467899908057</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919652</v>
+        <v>423.3179548919662</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213264</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267345</v>
+        <v>182.6181021267336</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.604074890459</v>
+        <v>159.60407489046</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015066</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890459</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890459</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080737</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>174.5968602363849</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>235.5191307207922</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>107.9711385388366</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>82.9854134326547</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>103.9718276552487</v>
+        <v>169.6334104499096</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>334.7467985086754</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>380.6160905735793</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323769</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539871</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14.56476845097745</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253653</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>212.0142063187929</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>79.1861267177523</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887348</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>71.62004231188467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>31.00706005405306</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>11.49758663287531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>172.0458230186242</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053484</v>
+        <v>3.020891618053488</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339025</v>
+        <v>30.93770628339029</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050071</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677671</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599712</v>
+        <v>384.2687421599717</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159756</v>
+        <v>476.7193540159762</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285343</v>
+        <v>530.4421353285348</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383288</v>
+        <v>539.0252436383294</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113094</v>
+        <v>508.98625261131</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906139</v>
+        <v>434.4079907906145</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190734</v>
+        <v>326.2223097190738</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025523</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639384</v>
+        <v>68.83856774639392</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802913</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442787</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546259</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395993</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.6495971832813</v>
+        <v>55.64959718328137</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433201</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499195</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876867</v>
+        <v>350.9469182876871</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449886</v>
+        <v>409.538500544989</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034573</v>
+        <v>420.3777660345735</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587848</v>
+        <v>384.5635284587852</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077327</v>
+        <v>308.646135307733</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.321767697098</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670739</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633072</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807069</v>
+        <v>6.514901886807077</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043592</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950631</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952471</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720627</v>
+        <v>40.75058985720632</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390964</v>
+        <v>95.80330632390975</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029915</v>
+        <v>157.4342619029917</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165512</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706794</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379545</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488038</v>
+        <v>191.5326998488041</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170108</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886115</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843474</v>
+        <v>60.92878398843481</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544872</v>
+        <v>23.61513928544875</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879969</v>
+        <v>5.789835922879976</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548907</v>
+        <v>0.07391279901548915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32002,7 +32004,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
         <v>769.2673490574995</v>
@@ -32330,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905542</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34153,7 +34155,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806949</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108084</v>
+        <v>75.34849544108118</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149906</v>
+        <v>164.1788911149911</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459884</v>
+        <v>240.952939045989</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012616</v>
+        <v>300.0959021012621</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417379</v>
+        <v>309.6121800417384</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896226</v>
+        <v>278.8880411896232</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353444</v>
+        <v>203.1749950353449</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446239</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665339</v>
+        <v>36.53628791124005</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881391</v>
+        <v>387.6239533881393</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078126</v>
+        <v>212.392538507813</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229702</v>
+        <v>267.4044666229707</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512396</v>
+        <v>289.0360539512402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143404</v>
+        <v>241.9672840143408</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934024</v>
+        <v>174.6717278934028</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.00716004566164</v>
+        <v>66.33999361107669</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144307999</v>
+        <v>0.1957579144309136</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236863</v>
+        <v>2.444126207236977</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771086</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768673</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.99694253252</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171831</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628435</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819043</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691713</v>
+        <v>27.30642203691727</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35270,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>278.4880321229883</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35978,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037213</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243944.477318172</v>
+        <v>1222664.594497109</v>
       </c>
     </row>
     <row r="7">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="V2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>149.8151737167706</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>127.5955430233146</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>82.50423287391843</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>163.5658773996764</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.18357156358636</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>338.1079641586273</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.9684151988899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813371</v>
+        <v>33.74703566813361</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>107.2134889668013</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -1034,13 +1034,13 @@
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>35.51375835229967</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>145.0121771229014</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>396.0636167006779</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>111.9546287659191</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.3237873681187</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>79.41653965146595</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>99.59895631930689</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>90.98010614281421</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>95.36297847286484</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.2419515106227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9766310328807</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.6086852141634</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>177.1186679426046</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.92518451681179</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>84.78512906876112</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>78.56505621325961</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.78083674902071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>322.3370915530047</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991727</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>91.3418605489764</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>105.022105255189</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>242.8528437613028</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>158.0466716610833</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>59.35991151980221</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>79.76470074482967</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>32.97988876732279</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744764</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>179.4545529747351</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.0510976947206</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>17.35112070699398</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.0389899623028</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>217.091419992848</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>186.8250998946393</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>190.114520705018</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>185.4977327332467</v>
       </c>
       <c r="U34" t="n">
-        <v>205.9739294011777</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>5.829022425352566</v>
       </c>
       <c r="E35" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.2656173771023</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>196.9624081978687</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>184.5496477570983</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>177.2776744015454</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>118.8979269427065</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>280.7324724857406</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>46.27144787880041</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>74.75769145492336</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>285.222396268639</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>232.8770887703503</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>105.0023863360924</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>120.4263234899697</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>12.46444879163167</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749989</v>
+        <v>523.8468426926747</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749989</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749989</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749989</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>903.5270617062563</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W3" t="n">
-        <v>649.2897049780547</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="X3" t="n">
-        <v>441.4382047725218</v>
+        <v>523.8468426926747</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.6779060075679</v>
+        <v>523.8468426926747</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434485</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434485</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434485</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434485</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4494,13 +4494,13 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>705.1402544752926</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7625979081147</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7625979081147</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9700187645846</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1220.611455618384</v>
+        <v>382.3341332603865</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.611455618384</v>
+        <v>382.3341332603865</v>
       </c>
       <c r="D5" t="n">
-        <v>1220.611455618384</v>
+        <v>382.3341332603865</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.951282321832</v>
+        <v>382.3341332603865</v>
       </c>
       <c r="F5" t="n">
-        <v>761.9653775322245</v>
+        <v>375.3886325111831</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452733</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780274</v>
+        <v>108.4604468780282</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818687</v>
+        <v>270.99754908187</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373977</v>
+        <v>509.5409587373997</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176472</v>
+        <v>806.6359018176501</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058968</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836695</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921687</v>
+        <v>1590.394365921692</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961954</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961954</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961954</v>
+        <v>1439.631434135151</v>
       </c>
       <c r="V5" t="n">
-        <v>1220.611455618384</v>
+        <v>1108.568546791581</v>
       </c>
       <c r="W5" t="n">
-        <v>1220.611455618384</v>
+        <v>755.7998915214664</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.611455618384</v>
+        <v>382.3341332603865</v>
       </c>
       <c r="Y5" t="n">
-        <v>1220.611455618384</v>
+        <v>382.3341332603865</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.95335120765398</v>
+        <v>785.2776372718523</v>
       </c>
       <c r="C6" t="n">
-        <v>67.95335120765398</v>
+        <v>610.8246079907253</v>
       </c>
       <c r="D6" t="n">
-        <v>67.95335120765398</v>
+        <v>461.890198329474</v>
       </c>
       <c r="E6" t="n">
-        <v>67.95335120765398</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765398</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765398</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="J6" t="n">
-        <v>70.03636142348495</v>
+        <v>59.47586665324469</v>
       </c>
       <c r="K6" t="n">
-        <v>453.7840752777429</v>
+        <v>181.4029958650503</v>
       </c>
       <c r="L6" t="n">
-        <v>664.0526884004777</v>
+        <v>391.6716089877857</v>
       </c>
       <c r="M6" t="n">
-        <v>928.7831103572187</v>
+        <v>795.8440284259023</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768946</v>
+        <v>1214.92880376895</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943144</v>
+        <v>1454.476414943148</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557612</v>
+        <v>1627.401425557618</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232578</v>
+        <v>1693.078019232584</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567865</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.18015784311</v>
+        <v>1584.975366066051</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178449</v>
+        <v>1389.36948040139</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833933</v>
+        <v>1161.253273056874</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566021907</v>
+        <v>1161.253273056874</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998739891</v>
+        <v>1161.253273056874</v>
       </c>
       <c r="X6" t="n">
-        <v>429.2170996684563</v>
+        <v>1161.253273056874</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.4568009035024</v>
+        <v>953.4929742919203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.7599586518284</v>
+        <v>967.7367519779873</v>
       </c>
       <c r="C7" t="n">
-        <v>686.7599586518284</v>
+        <v>798.8005690500804</v>
       </c>
       <c r="D7" t="n">
-        <v>536.6433192394926</v>
+        <v>648.6839296377447</v>
       </c>
       <c r="E7" t="n">
-        <v>536.6433192394926</v>
+        <v>500.7708360553515</v>
       </c>
       <c r="F7" t="n">
-        <v>389.7533717415822</v>
+        <v>353.8808885574412</v>
       </c>
       <c r="G7" t="n">
-        <v>221.434269341069</v>
+        <v>185.561786156928</v>
       </c>
       <c r="H7" t="n">
-        <v>69.73791957549838</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="I7" t="n">
-        <v>33.8654363913573</v>
+        <v>33.86543639135741</v>
       </c>
       <c r="J7" t="n">
-        <v>36.2851213365219</v>
+        <v>36.28512133652217</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128597</v>
+        <v>170.0982437128602</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119585</v>
+        <v>396.8594047119594</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191535</v>
+        <v>646.3363778191548</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536165</v>
+        <v>895.3159625361666</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580466</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933645</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230157</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="T7" t="n">
-        <v>975.8964400230157</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="U7" t="n">
-        <v>686.7599586518284</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="V7" t="n">
-        <v>686.7599586518284</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="W7" t="n">
-        <v>686.7599586518284</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="X7" t="n">
-        <v>686.7599586518284</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.7599586518284</v>
+        <v>1149.385216808227</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>1606.350901856219</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1248.085203249469</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>862.2969506512247</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>451.3110458616172</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2449.253844798217</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2240.508203404042</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1986.927142668221</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1986.927142668221</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.158487398107</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.158487398107</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1975.313418796631</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>748.2579907644267</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>579.3218078365198</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>429.2051684241841</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>281.292074841791</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>134.4021273438806</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1556.227393153825</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>929.9064555946665</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.038871968309</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C11" t="n">
-        <v>1137.43386558517</v>
+        <v>1682.315766249263</v>
       </c>
       <c r="D11" t="n">
-        <v>779.1681669784198</v>
+        <v>1324.050067642512</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,7 +5053,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008242</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.63871203243</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1424.011591242373</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.011591242373</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1475.375487024175</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1117.109788417425</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>731.3215358191806</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>731.3215358191806</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.07717600452</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028709</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1658.55634544945</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1369.453478575093</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1114.768990369206</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218342</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5530,37 +5530,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.4793381277382</v>
+        <v>628.7269654071697</v>
       </c>
       <c r="C19" t="n">
-        <v>163.8377936138381</v>
+        <v>459.7907824792628</v>
       </c>
       <c r="D19" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E19" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F19" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.327103036486</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9099329995254</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="X19" t="n">
-        <v>651.920382101508</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.1278029579779</v>
+        <v>810.3754302374094</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5785,19 +5785,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450754</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.744041450754</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y20" t="n">
-        <v>2424.744041450754</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494536</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.137385566629</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154294</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.1076525719</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.21770507399</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403284</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366324</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468306</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324776</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308156</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367744</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760994</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.38442316275</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731422</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.60582160917</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.14006334809</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372278</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6074,13 +6074,13 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1708.366253916657</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C25" t="n">
-        <v>1708.366253916657</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D25" t="n">
-        <v>1708.366253916657</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>1708.366253916657</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888693</v>
+        <v>1354.198945796882</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682807</v>
+        <v>1099.514457590995</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645846</v>
+        <v>810.0972875540343</v>
       </c>
       <c r="X25" t="n">
-        <v>1929.158833060187</v>
+        <v>582.107736656017</v>
       </c>
       <c r="Y25" t="n">
-        <v>1708.366253916657</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1698.50962791956</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C26" t="n">
-        <v>1698.50962791956</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6247,7 +6247,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
@@ -6302,49 +6302,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.823389952862</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.823389952862</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.823389952862</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952862</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3150.225125372327</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>2928.458509941853</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U28" t="n">
-        <v>2639.355643067496</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V28" t="n">
-        <v>2384.671154861609</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W28" t="n">
-        <v>2095.253984824649</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X28" t="n">
-        <v>1867.264433926632</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1646.471854783102</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
@@ -6484,7 +6484,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6499,16 +6499,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866151</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.080739605071</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>2489.080739605071</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6554,13 +6554,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.4780323548191</v>
+        <v>815.7608990065708</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269122</v>
+        <v>646.8247160786639</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>496.7080766663281</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>348.794983083935</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>201.9050355860246</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.010285469454</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.325797263567</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.908627226606</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X31" t="n">
-        <v>935.919076328589</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.1264971850588</v>
+        <v>997.4093638368105</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796252</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392135</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>364.0957168234162</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6721,7 +6721,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,19 +6785,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1876.069090541939</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C34" t="n">
-        <v>1876.069090541939</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1548.237216710019</v>
       </c>
       <c r="U34" t="n">
-        <v>2614.268390620447</v>
+        <v>1259.134349835663</v>
       </c>
       <c r="V34" t="n">
-        <v>2614.268390620447</v>
+        <v>1004.449861629776</v>
       </c>
       <c r="W34" t="n">
-        <v>2324.851220583486</v>
+        <v>1004.449861629776</v>
       </c>
       <c r="X34" t="n">
-        <v>2096.861669685469</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1876.069090541939</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796256</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C35" t="n">
-        <v>552.807938939214</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="36">
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.924953962485</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034578</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3120.355548834272</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>3120.355548834272</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>3120.355548834272</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>3120.355548834272</v>
+        <v>1314.89012101225</v>
       </c>
       <c r="W37" t="n">
-        <v>3120.355548834272</v>
+        <v>1025.472950975289</v>
       </c>
       <c r="X37" t="n">
-        <v>2892.365997936255</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="Y37" t="n">
-        <v>2671.573418792725</v>
+        <v>797.4834000772721</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.035106955551</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>698.5632779636812</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>287.5773731740737</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X38" t="n">
-        <v>2641.774278995485</v>
+        <v>2588.318918149021</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.634947019673</v>
+        <v>2198.179586173209</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218339</v>
+        <v>1042.776413617644</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218339</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218339</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251686</v>
+        <v>1224.424878447884</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271513</v>
+        <v>1224.424878447884</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.0249360836212</v>
+        <v>1224.424878447884</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.208022973022</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>765.1527206131875</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>765.1527206131875</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>350.080270458184</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7411,19 +7411,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3278.866985367958</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3025.336508641794</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2694.273621298224</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2694.273621298224</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X41" t="n">
-        <v>2320.807863037144</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y41" t="n">
-        <v>2320.807863037144</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="42">
@@ -7511,7 +7511,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.0249360836212</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="C43" t="n">
-        <v>142.0249360836212</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D43" t="n">
-        <v>142.0249360836212</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E43" t="n">
-        <v>142.0249360836212</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F43" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1225.738617910462</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621292</v>
+        <v>971.054129704575</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251686</v>
+        <v>681.6369596676143</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271513</v>
+        <v>681.6369596676143</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836212</v>
+        <v>460.8443805240842</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1712.341567565136</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1343.379050624724</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>985.113352017974</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218339</v>
+        <v>599.3250994197297</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>599.3250994197297</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3219.542805108066</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2862.546497866149</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2098.941407629258</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7748,7 +7748,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C46" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D46" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396717</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366697</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="W46" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="X46" t="n">
-        <v>2892.365997936254</v>
+        <v>1285.852497586827</v>
       </c>
       <c r="Y46" t="n">
-        <v>2671.573418792724</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157956</v>
+        <v>25.82445471157925</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.66716643458649</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>140.8505025064393</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.2819009407268</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>265.6739354517007</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>290.9502639294476</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.46900170907246</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.34270184147212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>88.94509462057272</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>2.30928492545678</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>42.43028133356455</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>64.81119518318431</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>145.9927856228084</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>82.46169202986671</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>70.05041680495275</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>26.9038771644083</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911095</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>128.2070887271928</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>277.7117364082916</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>168.0688818921506</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -24265,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.1651665445296</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3497438692349</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>274.9183408758533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>348.950481304939</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696548</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>40.0943963014341</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198.68274396876</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>310.4011377631409</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>31.98681829672537</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12041821276489</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>167.8579417260436</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>196.1234179510355</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>34.05121654292245</v>
       </c>
       <c r="U34" t="n">
-        <v>80.23790880443514</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>348.8540191953304</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1805474109846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>75.50340795433958</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>55.17523512595929</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>180.7232440139092</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>233.6440512519081</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>48.34889415592134</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>13.87529190157989</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25681,22 +25681,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>157.6465222608198</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>21.59472895491476</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.9894419369738898</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>178.0446368831031</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292601</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.185375452083477</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>105.2833318990675</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>206.1202045604631</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795272.3190033395</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795272.3190033393</v>
+        <v>795272.3190033394</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033395</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795272.3190033393</v>
+        <v>795272.3190033392</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795272.3190033394</v>
+        <v>795272.3190033393</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="E2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651048</v>
@@ -26334,19 +26334,19 @@
         <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="J2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="K2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651049</v>
@@ -26355,7 +26355,7 @@
         <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739495</v>
+        <v>176672.6241739511</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381908</v>
+        <v>223886.3093819068</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911419</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640781</v>
+        <v>41076.98154640821</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946831</v>
+        <v>54988.29121946801</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055023</v>
+        <v>204705.4033055019</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141542.82055258</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26456,10 +26456,10 @@
         <v>11600.2349971284</v>
       </c>
       <c r="O4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="P4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792311</v>
+        <v>75746.87167923122</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139331</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-502632.7871400664</v>
       </c>
       <c r="C6" t="n">
-        <v>35500.16275988707</v>
+        <v>35500.16275988561</v>
       </c>
       <c r="D6" t="n">
-        <v>34258.15954423739</v>
+        <v>34258.15954423853</v>
       </c>
       <c r="E6" t="n">
-        <v>141216.9633893924</v>
+        <v>137740.7740913317</v>
       </c>
       <c r="F6" t="n">
-        <v>323289.9432065831</v>
+        <v>319813.7539085222</v>
       </c>
       <c r="G6" t="n">
-        <v>323289.943206583</v>
+        <v>319813.7539085222</v>
       </c>
       <c r="H6" t="n">
-        <v>323289.943206583</v>
+        <v>319813.7539085222</v>
       </c>
       <c r="I6" t="n">
-        <v>323289.9432065836</v>
+        <v>319813.7539085221</v>
       </c>
       <c r="J6" t="n">
-        <v>254290.7887874689</v>
+        <v>250814.5994894081</v>
       </c>
       <c r="K6" t="n">
-        <v>282212.9616601754</v>
+        <v>278736.7723621139</v>
       </c>
       <c r="L6" t="n">
-        <v>268301.651987115</v>
+        <v>264825.4626890541</v>
       </c>
       <c r="M6" t="n">
-        <v>275737.6774131682</v>
+        <v>272261.4881151073</v>
       </c>
       <c r="N6" t="n">
-        <v>323289.9432065831</v>
+        <v>319813.7539085223</v>
       </c>
       <c r="O6" t="n">
-        <v>323289.9432065831</v>
+        <v>319813.7539085222</v>
       </c>
       <c r="P6" t="n">
-        <v>323289.943206583</v>
+        <v>319813.753908522</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908057</v>
+        <v>751.4467899908069</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,34 +26792,34 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919662</v>
+        <v>423.3179548919676</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267336</v>
+        <v>182.6181021267325</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.60407489046</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080714</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015066</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080714</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.60407489046</v>
+        <v>159.6040748904614</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080726</v>
+        <v>217.2668772080714</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5968602363849</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>191.3468959595996</v>
       </c>
       <c r="V2" t="n">
         <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>82.9854134326547</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>78.17744218016287</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>169.6334104499096</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>62.14377798936073</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>334.7467985086754</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>74.17388173845421</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539871</v>
+        <v>94.01296546539852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.56476845097745</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>34.44725614070568</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.1861267177523</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.57247622919334</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.48408607227611</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.49758663287531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>83.98281267668548</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28061,22 +28061,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053488</v>
+        <v>3.020891618053493</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339029</v>
+        <v>30.93770628339034</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050072</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599717</v>
+        <v>384.2687421599723</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159762</v>
+        <v>476.719354015977</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285348</v>
+        <v>530.4421353285358</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383294</v>
+        <v>539.0252436383303</v>
       </c>
       <c r="O5" t="n">
-        <v>508.98625261131</v>
+        <v>508.9862526113108</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906145</v>
+        <v>434.4079907906151</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190738</v>
+        <v>326.2223097190744</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639392</v>
+        <v>68.83856774639403</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802915</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546261</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328137</v>
+        <v>55.64959718328146</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499197</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876871</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.538500544989</v>
+        <v>409.5385005449897</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345735</v>
+        <v>420.3777660345742</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587852</v>
+        <v>384.5635284587859</v>
       </c>
       <c r="P6" t="n">
-        <v>308.646135307733</v>
+        <v>308.6461353077335</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970982</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633075</v>
+        <v>30.0224259963308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807077</v>
+        <v>6.514901886807087</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950633</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720632</v>
+        <v>40.75058985720639</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390975</v>
+        <v>95.80330632390991</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029917</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165514</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.41306557068</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379547</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488041</v>
+        <v>191.5326998488044</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170113</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843481</v>
+        <v>60.92878398843492</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544875</v>
+        <v>23.61513928544879</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879976</v>
+        <v>5.789835922879986</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548915</v>
+        <v>0.07391279901548928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32806,7 +32806,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,10 +33754,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108118</v>
+        <v>75.34849544108158</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149911</v>
+        <v>164.1788911149918</v>
       </c>
       <c r="L5" t="n">
-        <v>240.952939045989</v>
+        <v>240.9529390459898</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012621</v>
+        <v>300.0959021012631</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417384</v>
+        <v>309.6121800417394</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896232</v>
+        <v>278.8880411896241</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353449</v>
+        <v>203.1749950353456</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446243</v>
+        <v>103.9166198446249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.53628791124005</v>
+        <v>25.86912147665382</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881393</v>
+        <v>123.1587163755612</v>
       </c>
       <c r="L6" t="n">
-        <v>212.392538507813</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229707</v>
+        <v>408.2549691294107</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512402</v>
+        <v>423.3179548919676</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143408</v>
+        <v>241.9672840143414</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934028</v>
+        <v>174.6717278934033</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107669</v>
+        <v>66.33999361107703</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144309136</v>
+        <v>0.1957579144310841</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236977</v>
+        <v>2.444126207237133</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.1647700771091</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768679</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171833</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819048</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691727</v>
+        <v>27.30642203691745</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
